--- a/biology/Zoologie/Angora_turc/Angora_turc.xlsx
+++ b/biology/Zoologie/Angora_turc/Angora_turc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Angora turc est une race de chats à poils mi-longs originaire de Turquie (van). Ce chat est caractérisé par sa robe à poils mi-longs très soyeuse et sans sous-poils, et une silhouette fine et élancée qui le classe dans la catégorie des chats foreign comme l'abyssin ou le bleu russe. Race de chat très ancienne, l'angora turc est à l'origine de l'ensemble des races à poils longs (persan) et mi-longs (norvégien, maine coon, etc.) présents en Europe et en Amérique.
@@ -513,7 +525,9 @@
           <t>Origines</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">« La destinée des Angoras Turcs est passionnante car elle témoigne de l’histoire en général et de l’histoire du chat de race en particulier » (extrait du site du LOOF).
 Ce chat est connu en Orient depuis plus de 2 000 ans. L'angora turc était déjà décrit chez les Romains, ainsi Auguste Octave, premier empereur de Rome décrivait sa chatte blanche aux yeux or « comme délicate et raffinée, noble et indépendante d'esprit ». Les angoras turcs blancs étaient notamment possédés par les riches marchands qui voyaient en eux un symbole de pureté, de finesse et de richesse. Il est le premier chat à poil long arrivé en Europe. Le nom de ce chat provient de l'ancien nom de la capitale de la Turquie, appelée aujourd’hui Ankara. Il donnera son nom à l'ensemble des animaux « angoras », c'est-à-dire à poil mi-long (par exemple, le lapin angora). 
@@ -553,24 +567,201 @@
           <t>Standards</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le standard a évolué depuis la première exposition féline en Angleterre à la fin du XIXe siècle. Le chat actuellement élevé à travers le monde, est plus fin, plus élégant, avec des oreilles plus grandes et plus haut placées que les chats du zoo d'Ankara.
-Tête
-La tête est très harmonieuse, petite à moyenne et triangulaire, en s'effilant légèrement vers le menton. De profil, elle forme deux lignes droites, une qui va du dessus de la tête aux yeux et forme le front, l'autre va des yeux au nez. Ces deux lignes forment un angle très ouvert et la tête est ainsi relativement longue.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Angora_turc</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Angora_turc</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Standards</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Tête</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La tête est très harmonieuse, petite à moyenne et triangulaire, en s'effilant légèrement vers le menton. De profil, elle forme deux lignes droites, une qui va du dessus de la tête aux yeux et forme le front, l'autre va des yeux au nez. Ces deux lignes forment un angle très ouvert et la tête est ainsi relativement longue.
 Le museau est à peine arrondi, tout en étant assez long et surtout sans pinch. Le nez quant à lui est de longueur moyenne, assez droit et sans break, avec un menton ferme et légèrement arrondi à sa verticale.
-Yeux
-Les yeux sont grands, en amande, placés légèrement en oblique et très expressifs. Ceux des premiers angoras turcs, ramenés de Turquie, étaient bleus ou impairs, avec un œil bleu et un orange ou vert. Désormais, toutes les couleurs sont acceptées.
-Oreilles
-Les oreilles sont grandes et larges à la base. Elles se finissent légèrement en pointe et sont idéalement pourvues d'un plumet de lynx, élément caractéristique de la race. Les oreilles sont placées haut sur la tête et de manière verticale.
-Corps
-Le cou, assez long et mince, est gracieux, tout comme son corps. Bien qu'ayant une ossature légère, il paraît plus gros du fait de son épaisse fourrure, et son poids varie de 2,5 à 5 kg environ. Ce chat foreign est fin et élégant. Le corps est long fin et musclé mais l'ossature doit rester fine. L'élégance du chat prime sur les autres caractéristiques.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Angora_turc</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Angora_turc</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Standards</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Yeux</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les yeux sont grands, en amande, placés légèrement en oblique et très expressifs. Ceux des premiers angoras turcs, ramenés de Turquie, étaient bleus ou impairs, avec un œil bleu et un orange ou vert. Désormais, toutes les couleurs sont acceptées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Angora_turc</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Angora_turc</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Standards</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Oreilles</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les oreilles sont grandes et larges à la base. Elles se finissent légèrement en pointe et sont idéalement pourvues d'un plumet de lynx, élément caractéristique de la race. Les oreilles sont placées haut sur la tête et de manière verticale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Angora_turc</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Angora_turc</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Standards</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Corps</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cou, assez long et mince, est gracieux, tout comme son corps. Bien qu'ayant une ossature légère, il paraît plus gros du fait de son épaisse fourrure, et son poids varie de 2,5 à 5 kg environ. Ce chat foreign est fin et élégant. Le corps est long fin et musclé mais l'ossature doit rester fine. L'élégance du chat prime sur les autres caractéristiques.
 Les pattes sont en harmonie avec le corps. Elles sont donc longues et fines terminées par de petits pieds ovales ou ronds, avec des touffes de poils entre les doigts. Les pattes de derrière sont légèrement plus longues que celles de devant.
 La queue obéit aux mêmes règles de proportion. Elle est longue, plumeuse et effilée, et elle est fréquemment portée en panache comme une plume d'autruche.
 Le mâle est un peu plus massif que la femelle.
 Les poils sont mi-longs à longs sans sous poil. La texture du pelage est douce, fine et soyeuse. De plus, sa fourrure est plus longue et épaisse au niveau de la collerette (à partir de l'âge d'un an), des culottes et sous le ventre, où elle est en plus un peu ondulée. La robe est un des premiers critères du standard, elle doit être fine et soyeuse et vaporeuse. La collerette se développe vers l'âge de 1 an mais il faudra compter environ deux hivers pour qu'elle trouve toute sa dimension.
-Couleurs
-Toutes les couleurs sont reconnues par le LOOF sauf le lilas, le cannelle, le chocolat, le faon et les motifs colourpoint, sépia et mink. La FIFé reconnait les mêmes couleurs. Certaines associations reconnaissent également le point pour le moment non reconnu en France par le LOOF et par la FIFé.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Angora_turc</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Angora_turc</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Standards</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Couleurs</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Toutes les couleurs sont reconnues par le LOOF sauf le lilas, le cannelle, le chocolat, le faon et les motifs colourpoint, sépia et mink. La FIFé reconnait les mêmes couleurs. Certaines associations reconnaissent également le point pour le moment non reconnu en France par le LOOF et par la FIFé.
 La couleur blanche a longtemps été emblématique de la race, et certaines associations comme la FIFé n'ont pas reconnu pendant longtemps d'autres couleurs. Les problèmes de surdité liés à des mariages entre chats blancs que cela a engendré a poussé à la reconnaissance des autres couleurs.
 Il faut toutefois faire le constat que les angoras turcs blancs aux yeux bleus restent encore les plus appréciés y compris en exposition féline. Mais petit à petit, les angoras turcs de couleurs s'imposent sur les podiums.
 Il est à noter qu'à la naissance certain chat de pelage blanc présente une petite tache de couleur grise plus ou moins large au-dessus de la tête entre les deux oreilles. Cette tâche s'estompe au bout d'un an en même temps le poil se forme et prend du volume autour de la crinière, sous le ventre et sur la queue. 
@@ -590,136 +781,181 @@
 			Angora turc blue crème
 			Angora turc blancs yeux ambre yeux bleus yeux impairs
 			Angora turc toutes couleurs d'yeux
-Évolution du standard
-L'angora turc actuellement primé lors des expositions félines ne ressemble plus tellement au Catus angorensis décrit par les naturalistes il y a 250 ans.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Angora_turc</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Angora_turc</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Standards</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Évolution du standard</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'angora turc actuellement primé lors des expositions félines ne ressemble plus tellement au Catus angorensis décrit par les naturalistes il y a 250 ans.
 Les éleveurs ont fait évoluer la race au cours des dernières décennies pour arriver au chat actuellement décrit par le standard des principales fédérations félines.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Angora_turc</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Angora_turc</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Angora_turc</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Angora_turc</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Le développement sexuel de l'angora turc est assez précoce avec une maturité sexuelle atteinte vers huit à dix mois. Ce chaton très joueur, le restera toute sa vie. Le comportement du chat dépendra également de la façon dont il a été élevé dès son plus jeune âge, et de la relation qu'il a eue avec sa mère et avec l'homme. Il est déconseillé de séparer un chaton de sa mère avant l'âge de trois mois, pour le futur équilibre du chat.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Angora_turc</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Angora_turc</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Angora_turc</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Angora_turc</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Élevage</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Historique de l'élevage
-Situation actuelle de l'élevage
-Environ 220 à 230 chatons naissent en France chaque année selon les statistiques du LOOF. Ce nombre est relativement stable depuis dix ans puisqu'en moyenne ces dix dernières années, le nombre de chatons angora turc est de 200 par année[1].
-Les portées sont en moyenne de 3,4 chatons (statistiques du LOOF)[1].
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Situation actuelle de l'élevage</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Environ 220 à 230 chatons naissent en France chaque année selon les statistiques du LOOF. Ce nombre est relativement stable depuis dix ans puisqu'en moyenne ces dix dernières années, le nombre de chatons angora turc est de 200 par année.
+Les portées sont en moyenne de 3,4 chatons (statistiques du LOOF).
 Certains éleveurs privilégient un consanguinité pas trop élevée de la race pour conserver son côté "naturel" c'est-à-dire race non créée par l'homme. 
-La moyenne de consanguinité de la race calculée par le LOOF sur 1 809 chatons est de 5,74 %[1].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Angora_turc</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Angora_turc</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+La moyenne de consanguinité de la race calculée par le LOOF sur 1 809 chatons est de 5,74 %.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Angora_turc</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Angora_turc</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Santé</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">Race non créée par l'homme, l'angora turc est robuste et ne connaît pas de problème de santé particulier. Son espérance de vie est de plus de quinze ans. Concernant son entretien, ce chat ne pose pas de problème particulier car il est dépourvu de sous-poil et contrairement aux autres races à poils mi-longs, ne fait pas de nœuds. Un brossage une fois par semaine en hiver à une fois par quinzaine en été est suffisant. Lors de la mue, on pourra éviter au chat d'ingérer trop de poils en se léchant, par un brossage plus fréquent.
 </t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Angora_turc</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Angora_turc</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Angora_turc</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Angora_turc</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Arbre phylogénétique</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
